--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\work\zaki\automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC2784-1A82-410C-9D30-5BE5FEF59E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA62044E-CD13-47CF-BB58-9644E18EE858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>الاسم و لقب</t>
   </si>
@@ -64,12 +64,6 @@
     <t>للمنزل</t>
   </si>
   <si>
-    <t>ALIAMMAR</t>
-  </si>
-  <si>
-    <t>0662 16 21 29</t>
-  </si>
-  <si>
     <t>tiaret</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>bureau</t>
   </si>
   <si>
-    <t>حسان وحيد</t>
-  </si>
-  <si>
     <t>Blida</t>
   </si>
   <si>
@@ -97,18 +88,12 @@
     <t>maron foncé</t>
   </si>
   <si>
-    <t>قطاف</t>
-  </si>
-  <si>
     <t>البليدة</t>
   </si>
   <si>
     <t>بلدية مفتاح</t>
   </si>
   <si>
-    <t>Amine BENAOUDA</t>
-  </si>
-  <si>
     <t>Relizane</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>gris clair</t>
   </si>
   <si>
-    <t>علي</t>
-  </si>
-  <si>
     <t>سدي بلعباس</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>maron</t>
   </si>
   <si>
-    <t>Mabrouk Mettai</t>
-  </si>
-  <si>
     <t>Biskra</t>
   </si>
   <si>
@@ -145,9 +124,6 @@
     <t>zouj vert et gris clair</t>
   </si>
   <si>
-    <t>يوسف بوعناني</t>
-  </si>
-  <si>
     <t>معسكر</t>
   </si>
   <si>
@@ -160,9 +136,6 @@
     <t>التوصيل للمنزل 50 ميل</t>
   </si>
   <si>
-    <t>Abdelghani</t>
-  </si>
-  <si>
     <t>Tlemcen</t>
   </si>
   <si>
@@ -175,12 +148,6 @@
     <t>noir</t>
   </si>
   <si>
-    <t>lotfi</t>
-  </si>
-  <si>
-    <t>0772 102309</t>
-  </si>
-  <si>
     <t>tlemcen</t>
   </si>
   <si>
@@ -188,6 +155,60 @@
   </si>
   <si>
     <t>التوصيل للمنزل 50 الف</t>
+  </si>
+  <si>
+    <t>00 00 00 00 00</t>
+  </si>
+  <si>
+    <t>1 00 00 00 00</t>
+  </si>
+  <si>
+    <t>2 00 00 00 00</t>
+  </si>
+  <si>
+    <t>3 00 00 00 00</t>
+  </si>
+  <si>
+    <t>4 00 00 00 00</t>
+  </si>
+  <si>
+    <t>5 00 00 00 00</t>
+  </si>
+  <si>
+    <t>6 00 00 00 00</t>
+  </si>
+  <si>
+    <t>7 00 00 00 00</t>
+  </si>
+  <si>
+    <t>8 00 00 00 00</t>
+  </si>
+  <si>
+    <t>client 1</t>
+  </si>
+  <si>
+    <t>client 2</t>
+  </si>
+  <si>
+    <t>client 3</t>
+  </si>
+  <si>
+    <t>client 4</t>
+  </si>
+  <si>
+    <t>client 5</t>
+  </si>
+  <si>
+    <t>client 6</t>
+  </si>
+  <si>
+    <t>client 7</t>
+  </si>
+  <si>
+    <t>client 8</t>
+  </si>
+  <si>
+    <t>client 9</t>
   </si>
 </sst>
 </file>
@@ -197,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -226,6 +247,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -724,7 +751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:K10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -775,25 +802,25 @@
     </row>
     <row r="2" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6">
         <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -802,33 +829,33 @@
         <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5">
-        <v>661237466</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>11</v>
@@ -837,33 +864,33 @@
         <v>12</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5">
-        <v>771517160</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="15">
         <v>62</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>11</v>
@@ -872,33 +899,33 @@
         <v>12</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5">
-        <v>557386956</v>
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="11">
         <v>58</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>11</v>
@@ -907,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>13</v>
@@ -915,25 +942,25 @@
     </row>
     <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5">
-        <v>771576542</v>
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>11</v>
@@ -942,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>13</v>
@@ -950,25 +977,25 @@
     </row>
     <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5">
-        <v>671591336</v>
+        <v>59</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E7" s="11">
         <v>58</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>11</v>
@@ -977,31 +1004,31 @@
         <v>12</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5">
-        <v>662076041</v>
+        <v>60</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6">
         <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>11</v>
@@ -1010,33 +1037,33 @@
         <v>12</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>661222032</v>
+        <v>61</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>11</v>
@@ -1045,33 +1072,33 @@
         <v>12</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>11</v>
@@ -1080,10 +1107,10 @@
         <v>12</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -1099,7 +1126,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1112,7 +1139,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1125,7 +1152,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1138,7 +1165,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1151,7 +1178,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -1164,7 +1191,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1177,7 +1204,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1191,6 +1218,7 @@
       <c r="K18" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"expidie,attend expidie"</formula1>
